--- a/data/math/math-53.xlsx
+++ b/data/math/math-53.xlsx
@@ -464,7 +464,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>152</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -493,7 +493,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>153</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -522,7 +522,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>319</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -551,7 +551,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2334</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -580,7 +580,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2331</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -609,7 +609,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>85</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -638,7 +638,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>997</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -667,7 +667,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>308</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>299</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>90</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>91</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -783,7 +783,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>92</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -812,7 +812,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>94</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>95</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -870,7 +870,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>97</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>52</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -928,7 +928,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>56</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -957,7 +957,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>60</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -986,7 +986,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>63</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1015,7 +1015,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>66</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1044,7 +1044,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>110</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1073,7 +1073,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>111</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1102,7 +1102,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>114</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>115</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1160,7 +1160,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>118</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>119</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>120</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1247,7 +1247,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>122</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1276,7 +1276,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>123</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>125</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1334,7 +1334,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>126</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>128</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1392,7 +1392,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>129</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1421,7 +1421,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>172</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1450,7 +1450,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>173</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>175</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1508,7 +1508,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>215</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1537,7 +1537,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>216</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1566,7 +1566,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>217</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1595,7 +1595,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>220</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>221</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1653,7 +1653,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>222</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1682,7 +1682,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>223</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1711,7 +1711,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>226</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1740,7 +1740,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>227</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1769,7 +1769,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>230</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1798,7 +1798,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>231</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1827,7 +1827,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>232</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1856,7 +1856,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>233</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1885,7 +1885,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>236</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1914,7 +1914,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>237</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1943,7 +1943,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>238</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1972,7 +1972,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>263</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2001,7 +2001,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>264</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2030,7 +2030,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>266</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>267</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2088,7 +2088,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>268</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2117,7 +2117,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>269</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2146,7 +2146,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>271</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2175,7 +2175,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>274</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2204,7 +2204,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>286</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>287</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2262,7 +2262,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>289</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>332</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2320,7 +2320,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>364</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2349,7 +2349,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>365</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2378,7 +2378,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>366</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2407,7 +2407,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>368</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2436,7 +2436,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>371</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2465,7 +2465,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>373</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2494,7 +2494,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>404</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2523,7 +2523,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>405</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2552,7 +2552,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>407</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2581,7 +2581,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>410</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2610,7 +2610,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>412</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2639,7 +2639,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>424</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2668,7 +2668,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>425</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2697,7 +2697,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>428</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2726,7 +2726,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>451</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2755,7 +2755,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>452</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2784,7 +2784,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>453</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>456</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2842,7 +2842,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>475</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2871,7 +2871,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>476</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2900,7 +2900,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>479</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2929,7 +2929,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>498</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2958,7 +2958,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>499</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2987,7 +2987,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>502</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>521</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -3045,7 +3045,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>522</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -3074,7 +3074,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>525</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -3103,7 +3103,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>556</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -3132,7 +3132,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>557</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -3161,7 +3161,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>560</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -3190,7 +3190,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>590</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -3219,7 +3219,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>591</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -3248,7 +3248,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>594</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3277,7 +3277,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>625</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3306,7 +3306,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>626</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3335,7 +3335,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>629</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3364,7 +3364,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>630</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3393,7 +3393,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>663</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3422,7 +3422,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>664</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3451,7 +3451,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>667</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3480,7 +3480,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>690</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3509,7 +3509,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>691</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3538,7 +3538,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>721</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3567,7 +3567,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>722</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3596,7 +3596,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>725</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>755</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3654,7 +3654,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>756</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3683,7 +3683,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>759</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3712,7 +3712,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>797</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3741,7 +3741,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>798</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3770,7 +3770,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>801</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3799,7 +3799,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>802</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3828,7 +3828,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>805</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3857,7 +3857,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>806</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3886,7 +3886,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>807</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3915,7 +3915,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>809</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3944,7 +3944,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>833</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3973,7 +3973,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>863</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -4002,7 +4002,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>864</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -4031,7 +4031,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>867</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -4060,7 +4060,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>868</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -4089,7 +4089,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>869</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -4118,7 +4118,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>871</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -4147,7 +4147,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>901</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -4176,7 +4176,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>902</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -4205,7 +4205,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>905</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -4234,7 +4234,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>906</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -4263,7 +4263,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>907</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -4292,7 +4292,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>909</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -4321,7 +4321,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>929</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -4350,7 +4350,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>952</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -4379,7 +4379,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>953</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>958</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -4437,7 +4437,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>960</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -4466,7 +4466,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>961</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -4495,7 +4495,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>962</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -4524,7 +4524,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>965</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -4553,7 +4553,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>966</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -4582,7 +4582,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>967</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -4611,7 +4611,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>971</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -4640,7 +4640,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>974</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -4669,7 +4669,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>975</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -4698,7 +4698,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>976</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -4727,7 +4727,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>977</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -4756,7 +4756,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>979</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -4785,7 +4785,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>980</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -4814,7 +4814,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>981</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -4843,7 +4843,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>982</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -4872,7 +4872,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>985</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -4901,7 +4901,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>1007</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -4930,7 +4930,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>1012</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -4959,7 +4959,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>1018</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -4988,7 +4988,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>49</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>41</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -5046,7 +5046,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>42</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -5075,7 +5075,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -5104,7 +5104,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>51</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -5133,7 +5133,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>44</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -5162,7 +5162,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -5191,7 +5191,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>45</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -5220,7 +5220,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>46</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -5249,7 +5249,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -5278,7 +5278,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>56</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -5307,7 +5307,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>62</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -5336,7 +5336,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>43</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -5365,7 +5365,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -5394,7 +5394,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>44</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -5423,7 +5423,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>45</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -5452,7 +5452,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>55</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -5481,7 +5481,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>56</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -5510,7 +5510,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>57</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -5539,7 +5539,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>61</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -5568,7 +5568,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>67</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -5597,7 +5597,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>73</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -5626,7 +5626,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>61</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -5655,7 +5655,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>62</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -5684,7 +5684,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>80</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -5713,7 +5713,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>89</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -5742,7 +5742,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>90</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -5771,7 +5771,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>91</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>92</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -5829,7 +5829,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>93</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -5858,7 +5858,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>99</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -5887,7 +5887,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>105</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -5916,7 +5916,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>113</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -5945,7 +5945,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>119</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -5974,7 +5974,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>46</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -6003,7 +6003,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>47</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -6032,7 +6032,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>48</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -6061,7 +6061,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>54</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -6082,7 +6082,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>org.apache.commons.math.util.MathUtils$OrderDirection</t>
+          <t>org.apache.commons.math.util.MathUtils</t>
         </is>
       </c>
       <c r="B196" t="n">
@@ -6090,10 +6090,15 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>195</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr"/>
+          <t>1943</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    public static enum OrderDirection {
+</t>
+        </is>
+      </c>
       <c r="E196" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -6106,7 +6111,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>org.apache.commons.math.util.MathUtils$OrderDirection</t>
+          <t>org.apache.commons.math.util.MathUtils</t>
         </is>
       </c>
       <c r="B197" t="n">
@@ -6114,10 +6119,15 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>196</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr"/>
+          <t>1945</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        INCREASING,
+</t>
+        </is>
+      </c>
       <c r="E197" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -6130,7 +6140,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>org.apache.commons.math.util.MathUtils$OrderDirection</t>
+          <t>org.apache.commons.math.util.MathUtils</t>
         </is>
       </c>
       <c r="B198" t="n">
@@ -6138,10 +6148,15 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>197</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr"/>
+          <t>1947</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        DECREASING
+</t>
+        </is>
+      </c>
       <c r="E198" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -6162,7 +6177,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -6191,7 +6206,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>54</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -6220,7 +6235,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>67</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -6249,7 +6264,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>69</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -6278,7 +6293,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>70</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -6307,7 +6322,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>71</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -6336,7 +6351,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>77</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -6365,7 +6380,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>84</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -6394,7 +6409,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>44</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -6423,7 +6438,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>45</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -6452,7 +6467,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>46</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -6481,7 +6496,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>56</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -6510,7 +6525,7 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>57</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -6539,7 +6554,7 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>63</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -6568,7 +6583,7 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -6597,7 +6612,7 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>54</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -6626,7 +6641,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>68</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -6655,7 +6670,7 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>70</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -6684,7 +6699,7 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>71</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -6713,7 +6728,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>72</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -6742,7 +6757,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>78</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -6771,7 +6786,7 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>85</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -6800,7 +6815,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -6829,7 +6844,7 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>41</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -6858,7 +6873,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>53</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -6887,7 +6902,7 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>54</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -6916,7 +6931,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -6945,7 +6960,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -6974,7 +6989,7 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>47</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -7003,7 +7018,7 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>48</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -7032,7 +7047,7 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>98</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -7061,7 +7076,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>99</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -7090,7 +7105,7 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>112</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -7119,7 +7134,7 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>113</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -7148,7 +7163,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>114</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -7177,7 +7192,7 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>116</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -7206,7 +7221,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>130</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -7235,7 +7250,7 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>146</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -7264,7 +7279,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>148</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -7293,7 +7308,7 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>152</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -7322,7 +7337,7 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>153</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -7351,7 +7366,7 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>155</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -7380,7 +7395,7 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>156</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -7409,7 +7424,7 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>158</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
@@ -7438,7 +7453,7 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>162</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
@@ -7467,7 +7482,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>169</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -7496,7 +7511,7 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>170</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -7525,7 +7540,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>172</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
@@ -7554,7 +7569,7 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>176</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
@@ -7583,7 +7598,7 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>205</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
@@ -7612,7 +7627,7 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>206</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
@@ -7641,7 +7656,7 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>207</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
@@ -7670,7 +7685,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>209</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
@@ -7699,7 +7714,7 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>210</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
@@ -7728,7 +7743,7 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>213</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
@@ -7757,7 +7772,7 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>214</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
@@ -7786,7 +7801,7 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>222</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
@@ -7815,7 +7830,7 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>223</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
@@ -7844,7 +7859,7 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>225</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
@@ -7873,7 +7888,7 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>226</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
@@ -7902,7 +7917,7 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>227</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
@@ -7931,7 +7946,7 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>228</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
@@ -7960,7 +7975,7 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>230</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
@@ -7989,7 +8004,7 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>233</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
@@ -8018,7 +8033,7 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>234</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
@@ -8047,7 +8062,7 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>241</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
@@ -8076,7 +8091,7 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>242</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
@@ -8105,7 +8120,7 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>243</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
@@ -8134,7 +8149,7 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>245</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
@@ -8163,7 +8178,7 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>249</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
@@ -8192,7 +8207,7 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>250</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
@@ -8221,7 +8236,7 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>251</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
@@ -8250,7 +8265,7 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>252</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
@@ -8279,7 +8294,7 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>253</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
@@ -8308,7 +8323,7 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>256</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
@@ -8337,7 +8352,7 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>282</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
@@ -8366,7 +8381,7 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>283</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
@@ -8395,7 +8410,7 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>284</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
@@ -8424,7 +8439,7 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>286</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
@@ -8453,7 +8468,7 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>287</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
@@ -8482,7 +8497,7 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>289</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
@@ -8511,7 +8526,7 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>290</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
@@ -8540,7 +8555,7 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>292</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
@@ -8569,7 +8584,7 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>293</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
@@ -8598,7 +8613,7 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>296</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
@@ -8627,7 +8642,7 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>297</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
@@ -8656,7 +8671,7 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>298</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
@@ -8685,7 +8700,7 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>301</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
@@ -8714,7 +8729,7 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>323</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
@@ -8743,7 +8758,7 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>324</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
@@ -8772,7 +8787,7 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>325</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
@@ -8801,7 +8816,7 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>327</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
@@ -8830,7 +8845,7 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>328</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
@@ -8859,7 +8874,7 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>335</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
@@ -8888,7 +8903,7 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>336</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
@@ -8917,7 +8932,7 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>343</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
@@ -8946,7 +8961,7 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>344</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
@@ -8975,7 +8990,7 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>347</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
@@ -9004,7 +9019,7 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>348</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
@@ -9033,7 +9048,7 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>354</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
@@ -9062,7 +9077,7 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>357</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
@@ -9091,7 +9106,7 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>358</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
@@ -9120,7 +9135,7 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>362</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
@@ -9149,7 +9164,7 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>363</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
@@ -9178,7 +9193,7 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>366</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
@@ -9207,7 +9222,7 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>378</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
@@ -9236,7 +9251,7 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>379</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
@@ -9265,7 +9280,7 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>382</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
@@ -9294,7 +9309,7 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>383</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
@@ -9323,7 +9338,7 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>385</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
@@ -9352,7 +9367,7 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>398</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
@@ -9381,7 +9396,7 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>399</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
@@ -9410,7 +9425,7 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>400</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
@@ -9439,7 +9454,7 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>401</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
@@ -9468,7 +9483,7 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>403</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
@@ -9497,7 +9512,7 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>424</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
@@ -9526,7 +9541,7 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>425</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
@@ -9555,7 +9570,7 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>426</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
@@ -9584,7 +9599,7 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>427</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
@@ -9613,7 +9628,7 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>429</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
@@ -9642,7 +9657,7 @@
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>440</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
@@ -9671,7 +9686,7 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>452</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
@@ -9700,7 +9715,7 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>465</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
@@ -9729,7 +9744,7 @@
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>479</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
@@ -9758,7 +9773,7 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>494</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
@@ -9787,7 +9802,7 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>516</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
@@ -9816,7 +9831,7 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>517</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
@@ -9845,7 +9860,7 @@
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>520</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
@@ -9874,7 +9889,7 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>521</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
@@ -9903,7 +9918,7 @@
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>327</t>
+          <t>523</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
@@ -9932,7 +9947,7 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>328</t>
+          <t>524</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
@@ -9961,7 +9976,7 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>527</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
@@ -9990,7 +10005,7 @@
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>529</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
@@ -10019,7 +10034,7 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>331</t>
+          <t>545</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
@@ -10048,7 +10063,7 @@
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>559</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
@@ -10077,7 +10092,7 @@
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>560</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
@@ -10106,7 +10121,7 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>562</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
@@ -10135,7 +10150,7 @@
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>563</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
@@ -10164,7 +10179,7 @@
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>336</t>
+          <t>565</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
@@ -10193,7 +10208,7 @@
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>566</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
@@ -10222,7 +10237,7 @@
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>567</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
@@ -10251,7 +10266,7 @@
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>570</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
@@ -10280,7 +10295,7 @@
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>585</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
@@ -10309,7 +10324,7 @@
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>586</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
@@ -10338,7 +10353,7 @@
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>342</t>
+          <t>588</t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
@@ -10367,7 +10382,7 @@
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>589</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
@@ -10396,7 +10411,7 @@
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>591</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
@@ -10425,7 +10440,7 @@
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>592</t>
         </is>
       </c>
       <c r="D346" t="inlineStr">
@@ -10454,7 +10469,7 @@
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>346</t>
+          <t>593</t>
         </is>
       </c>
       <c r="D347" t="inlineStr">
@@ -10483,7 +10498,7 @@
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>596</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
@@ -10512,7 +10527,7 @@
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>608</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
@@ -10541,7 +10556,7 @@
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>621</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
@@ -10570,7 +10585,7 @@
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>636</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
@@ -10599,7 +10614,7 @@
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>651</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
@@ -10628,7 +10643,7 @@
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>672</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
@@ -10657,7 +10672,7 @@
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>673</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
@@ -10686,7 +10701,7 @@
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>676</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
@@ -10715,7 +10730,7 @@
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>677</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
@@ -10744,7 +10759,7 @@
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>679</t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
@@ -10773,7 +10788,7 @@
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>680</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
@@ -10802,7 +10817,7 @@
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>683</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
@@ -10831,7 +10846,7 @@
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>685</t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
@@ -10860,7 +10875,7 @@
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>701</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
@@ -10889,7 +10904,7 @@
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>715</t>
         </is>
       </c>
       <c r="D362" t="inlineStr">
@@ -10918,7 +10933,7 @@
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>716</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
@@ -10947,7 +10962,7 @@
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>718</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
@@ -10976,7 +10991,7 @@
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>719</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
@@ -11005,7 +11020,7 @@
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>721</t>
         </is>
       </c>
       <c r="D366" t="inlineStr">
@@ -11034,7 +11049,7 @@
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>366</t>
+          <t>722</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
@@ -11063,7 +11078,7 @@
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>723</t>
         </is>
       </c>
       <c r="D368" t="inlineStr">
@@ -11092,7 +11107,7 @@
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>726</t>
         </is>
       </c>
       <c r="D369" t="inlineStr">
@@ -11121,7 +11136,7 @@
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>369</t>
+          <t>741</t>
         </is>
       </c>
       <c r="D370" t="inlineStr">
@@ -11150,7 +11165,7 @@
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>742</t>
         </is>
       </c>
       <c r="D371" t="inlineStr">
@@ -11179,7 +11194,7 @@
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>744</t>
         </is>
       </c>
       <c r="D372" t="inlineStr">
@@ -11208,7 +11223,7 @@
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>372</t>
+          <t>745</t>
         </is>
       </c>
       <c r="D373" t="inlineStr">
@@ -11237,7 +11252,7 @@
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>747</t>
         </is>
       </c>
       <c r="D374" t="inlineStr">
@@ -11266,7 +11281,7 @@
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>374</t>
+          <t>748</t>
         </is>
       </c>
       <c r="D375" t="inlineStr">
@@ -11295,7 +11310,7 @@
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>749</t>
         </is>
       </c>
       <c r="D376" t="inlineStr">
@@ -11324,7 +11339,7 @@
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>752</t>
         </is>
       </c>
       <c r="D377" t="inlineStr">
@@ -11353,7 +11368,7 @@
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>377</t>
+          <t>780</t>
         </is>
       </c>
       <c r="D378" t="inlineStr">
@@ -11382,7 +11397,7 @@
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>781</t>
         </is>
       </c>
       <c r="D379" t="inlineStr">
@@ -11411,7 +11426,7 @@
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>379</t>
+          <t>784</t>
         </is>
       </c>
       <c r="D380" t="inlineStr">
@@ -11440,7 +11455,7 @@
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>380</t>
+          <t>785</t>
         </is>
       </c>
       <c r="D381" t="inlineStr">
@@ -11469,7 +11484,7 @@
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>787</t>
         </is>
       </c>
       <c r="D382" t="inlineStr">
@@ -11498,7 +11513,7 @@
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>804</t>
         </is>
       </c>
       <c r="D383" t="inlineStr">
@@ -11527,7 +11542,7 @@
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>383</t>
+          <t>805</t>
         </is>
       </c>
       <c r="D384" t="inlineStr">
@@ -11556,7 +11571,7 @@
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>384</t>
+          <t>808</t>
         </is>
       </c>
       <c r="D385" t="inlineStr">
@@ -11585,7 +11600,7 @@
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>385</t>
+          <t>809</t>
         </is>
       </c>
       <c r="D386" t="inlineStr">
@@ -11614,7 +11629,7 @@
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>386</t>
+          <t>811</t>
         </is>
       </c>
       <c r="D387" t="inlineStr">
@@ -11643,7 +11658,7 @@
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>387</t>
+          <t>822</t>
         </is>
       </c>
       <c r="D388" t="inlineStr">
@@ -11672,7 +11687,7 @@
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>388</t>
+          <t>823</t>
         </is>
       </c>
       <c r="D389" t="inlineStr">
@@ -11701,7 +11716,7 @@
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>389</t>
+          <t>826</t>
         </is>
       </c>
       <c r="D390" t="inlineStr">
@@ -11730,7 +11745,7 @@
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>827</t>
         </is>
       </c>
       <c r="D391" t="inlineStr">
@@ -11759,7 +11774,7 @@
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>391</t>
+          <t>829</t>
         </is>
       </c>
       <c r="D392" t="inlineStr">
@@ -11788,7 +11803,7 @@
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>830</t>
         </is>
       </c>
       <c r="D393" t="inlineStr">
@@ -11817,7 +11832,7 @@
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>393</t>
+          <t>831</t>
         </is>
       </c>
       <c r="D394" t="inlineStr">
@@ -11846,7 +11861,7 @@
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>394</t>
+          <t>833</t>
         </is>
       </c>
       <c r="D395" t="inlineStr">
@@ -11875,7 +11890,7 @@
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>866</t>
         </is>
       </c>
       <c r="D396" t="inlineStr">
@@ -11904,7 +11919,7 @@
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>396</t>
+          <t>867</t>
         </is>
       </c>
       <c r="D397" t="inlineStr">
@@ -11933,7 +11948,7 @@
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>397</t>
+          <t>868</t>
         </is>
       </c>
       <c r="D398" t="inlineStr">
@@ -11962,7 +11977,7 @@
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>398</t>
+          <t>869</t>
         </is>
       </c>
       <c r="D399" t="inlineStr">
@@ -11991,7 +12006,7 @@
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>399</t>
+          <t>870</t>
         </is>
       </c>
       <c r="D400" t="inlineStr">
@@ -12020,7 +12035,7 @@
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>873</t>
         </is>
       </c>
       <c r="D401" t="inlineStr">
@@ -12049,7 +12064,7 @@
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>401</t>
+          <t>880</t>
         </is>
       </c>
       <c r="D402" t="inlineStr">
@@ -12078,7 +12093,7 @@
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>881</t>
         </is>
       </c>
       <c r="D403" t="inlineStr">
@@ -12107,7 +12122,7 @@
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>883</t>
         </is>
       </c>
       <c r="D404" t="inlineStr">
@@ -12136,7 +12151,7 @@
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>884</t>
         </is>
       </c>
       <c r="D405" t="inlineStr">
@@ -12165,7 +12180,7 @@
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>887</t>
         </is>
       </c>
       <c r="D406" t="inlineStr">
@@ -12194,7 +12209,7 @@
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>888</t>
         </is>
       </c>
       <c r="D407" t="inlineStr">
@@ -12223,7 +12238,7 @@
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>407</t>
+          <t>890</t>
         </is>
       </c>
       <c r="D408" t="inlineStr">
@@ -12252,7 +12267,7 @@
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>408</t>
+          <t>891</t>
         </is>
       </c>
       <c r="D409" t="inlineStr">
@@ -12281,7 +12296,7 @@
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>409</t>
+          <t>892</t>
         </is>
       </c>
       <c r="D410" t="inlineStr">
@@ -12310,7 +12325,7 @@
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>410</t>
+          <t>894</t>
         </is>
       </c>
       <c r="D411" t="inlineStr">
@@ -12339,7 +12354,7 @@
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>895</t>
         </is>
       </c>
       <c r="D412" t="inlineStr">
@@ -12368,7 +12383,7 @@
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>900</t>
         </is>
       </c>
       <c r="D413" t="inlineStr">
@@ -12397,7 +12412,7 @@
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>413</t>
+          <t>906</t>
         </is>
       </c>
       <c r="D414" t="inlineStr">
@@ -12426,7 +12441,7 @@
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>907</t>
         </is>
       </c>
       <c r="D415" t="inlineStr">
@@ -12455,7 +12470,7 @@
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>415</t>
+          <t>910</t>
         </is>
       </c>
       <c r="D416" t="inlineStr">
@@ -12484,7 +12499,7 @@
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>416</t>
+          <t>911</t>
         </is>
       </c>
       <c r="D417" t="inlineStr">
@@ -12513,7 +12528,7 @@
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>417</t>
+          <t>913</t>
         </is>
       </c>
       <c r="D418" t="inlineStr">
@@ -12542,7 +12557,7 @@
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>916</t>
         </is>
       </c>
       <c r="D419" t="inlineStr">
@@ -12571,7 +12586,7 @@
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>419</t>
+          <t>919</t>
         </is>
       </c>
       <c r="D420" t="inlineStr">
@@ -12600,7 +12615,7 @@
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>920</t>
         </is>
       </c>
       <c r="D421" t="inlineStr">
@@ -12629,7 +12644,7 @@
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>421</t>
+          <t>953</t>
         </is>
       </c>
       <c r="D422" t="inlineStr">
@@ -12658,7 +12673,7 @@
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>422</t>
+          <t>954</t>
         </is>
       </c>
       <c r="D423" t="inlineStr">
@@ -12687,7 +12702,7 @@
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>955</t>
         </is>
       </c>
       <c r="D424" t="inlineStr">
@@ -12716,7 +12731,7 @@
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>956</t>
         </is>
       </c>
       <c r="D425" t="inlineStr">
@@ -12745,7 +12760,7 @@
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>425</t>
+          <t>957</t>
         </is>
       </c>
       <c r="D426" t="inlineStr">
@@ -12774,7 +12789,7 @@
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>426</t>
+          <t>960</t>
         </is>
       </c>
       <c r="D427" t="inlineStr">
@@ -12803,7 +12818,7 @@
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>427</t>
+          <t>967</t>
         </is>
       </c>
       <c r="D428" t="inlineStr">
@@ -12832,7 +12847,7 @@
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>428</t>
+          <t>968</t>
         </is>
       </c>
       <c r="D429" t="inlineStr">
@@ -12861,7 +12876,7 @@
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>429</t>
+          <t>970</t>
         </is>
       </c>
       <c r="D430" t="inlineStr">
@@ -12890,7 +12905,7 @@
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>971</t>
         </is>
       </c>
       <c r="D431" t="inlineStr">
@@ -12919,7 +12934,7 @@
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>431</t>
+          <t>974</t>
         </is>
       </c>
       <c r="D432" t="inlineStr">
@@ -12948,7 +12963,7 @@
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>432</t>
+          <t>975</t>
         </is>
       </c>
       <c r="D433" t="inlineStr">
@@ -12977,7 +12992,7 @@
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>433</t>
+          <t>977</t>
         </is>
       </c>
       <c r="D434" t="inlineStr">
@@ -13006,7 +13021,7 @@
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>978</t>
         </is>
       </c>
       <c r="D435" t="inlineStr">
@@ -13035,7 +13050,7 @@
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>979</t>
         </is>
       </c>
       <c r="D436" t="inlineStr">
@@ -13064,7 +13079,7 @@
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>436</t>
+          <t>981</t>
         </is>
       </c>
       <c r="D437" t="inlineStr">
@@ -13093,7 +13108,7 @@
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>982</t>
         </is>
       </c>
       <c r="D438" t="inlineStr">
@@ -13122,7 +13137,7 @@
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>438</t>
+          <t>987</t>
         </is>
       </c>
       <c r="D439" t="inlineStr">
@@ -13151,7 +13166,7 @@
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>439</t>
+          <t>993</t>
         </is>
       </c>
       <c r="D440" t="inlineStr">
@@ -13180,7 +13195,7 @@
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>994</t>
         </is>
       </c>
       <c r="D441" t="inlineStr">
@@ -13209,7 +13224,7 @@
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>441</t>
+          <t>997</t>
         </is>
       </c>
       <c r="D442" t="inlineStr">
@@ -13238,7 +13253,7 @@
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>998</t>
         </is>
       </c>
       <c r="D443" t="inlineStr">
@@ -13267,7 +13282,7 @@
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="D444" t="inlineStr">
@@ -13296,7 +13311,7 @@
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>444</t>
+          <t>1003</t>
         </is>
       </c>
       <c r="D445" t="inlineStr">
@@ -13325,7 +13340,7 @@
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>1006</t>
         </is>
       </c>
       <c r="D446" t="inlineStr">
@@ -13354,7 +13369,7 @@
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>446</t>
+          <t>1007</t>
         </is>
       </c>
       <c r="D447" t="inlineStr">
@@ -13383,7 +13398,7 @@
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>1017</t>
         </is>
       </c>
       <c r="D448" t="inlineStr">
@@ -13412,7 +13427,7 @@
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>1028</t>
         </is>
       </c>
       <c r="D449" t="inlineStr">
@@ -13441,7 +13456,7 @@
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>449</t>
+          <t>1039</t>
         </is>
       </c>
       <c r="D450" t="inlineStr">
@@ -13470,7 +13485,7 @@
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>450</t>
+          <t>1051</t>
         </is>
       </c>
       <c r="D451" t="inlineStr">
@@ -13499,7 +13514,7 @@
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>1052</t>
         </is>
       </c>
       <c r="D452" t="inlineStr">
@@ -13528,7 +13543,7 @@
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>452</t>
+          <t>1054</t>
         </is>
       </c>
       <c r="D453" t="inlineStr">
@@ -13557,7 +13572,7 @@
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>453</t>
+          <t>1065</t>
         </is>
       </c>
       <c r="D454" t="inlineStr">
@@ -13586,7 +13601,7 @@
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>454</t>
+          <t>1066</t>
         </is>
       </c>
       <c r="D455" t="inlineStr">
@@ -13615,7 +13630,7 @@
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>1068</t>
         </is>
       </c>
       <c r="D456" t="inlineStr">
@@ -13644,7 +13659,7 @@
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>456</t>
+          <t>1078</t>
         </is>
       </c>
       <c r="D457" t="inlineStr">
@@ -13673,7 +13688,7 @@
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>457</t>
+          <t>1088</t>
         </is>
       </c>
       <c r="D458" t="inlineStr">
@@ -13702,7 +13717,7 @@
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>458</t>
+          <t>1099</t>
         </is>
       </c>
       <c r="D459" t="inlineStr">
@@ -13731,7 +13746,7 @@
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>459</t>
+          <t>1125</t>
         </is>
       </c>
       <c r="D460" t="inlineStr">
@@ -13760,7 +13775,7 @@
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>1126</t>
         </is>
       </c>
       <c r="D461" t="inlineStr">
@@ -13789,7 +13804,7 @@
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>461</t>
+          <t>1128</t>
         </is>
       </c>
       <c r="D462" t="inlineStr">
@@ -13818,7 +13833,7 @@
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>462</t>
+          <t>1129</t>
         </is>
       </c>
       <c r="D463" t="inlineStr">
@@ -13847,7 +13862,7 @@
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>463</t>
+          <t>1130</t>
         </is>
       </c>
       <c r="D464" t="inlineStr">
@@ -13876,7 +13891,7 @@
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>464</t>
+          <t>1133</t>
         </is>
       </c>
       <c r="D465" t="inlineStr">
@@ -13905,7 +13920,7 @@
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>1159</t>
         </is>
       </c>
       <c r="D466" t="inlineStr">
@@ -13934,7 +13949,7 @@
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>466</t>
+          <t>1160</t>
         </is>
       </c>
       <c r="D467" t="inlineStr">
@@ -13963,7 +13978,7 @@
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>467</t>
+          <t>1162</t>
         </is>
       </c>
       <c r="D468" t="inlineStr">
@@ -13992,7 +14007,7 @@
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>468</t>
+          <t>1163</t>
         </is>
       </c>
       <c r="D469" t="inlineStr">
@@ -14021,7 +14036,7 @@
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>469</t>
+          <t>1164</t>
         </is>
       </c>
       <c r="D470" t="inlineStr">
@@ -14050,7 +14065,7 @@
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>470</t>
+          <t>1167</t>
         </is>
       </c>
       <c r="D471" t="inlineStr">
@@ -14079,7 +14094,7 @@
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>471</t>
+          <t>1187</t>
         </is>
       </c>
       <c r="D472" t="inlineStr">
@@ -14108,7 +14123,7 @@
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>472</t>
+          <t>1201</t>
         </is>
       </c>
       <c r="D473" t="inlineStr">
@@ -14137,7 +14152,7 @@
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>473</t>
+          <t>1202</t>
         </is>
       </c>
       <c r="D474" t="inlineStr">
@@ -14166,7 +14181,7 @@
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>474</t>
+          <t>1203</t>
         </is>
       </c>
       <c r="D475" t="inlineStr">
@@ -14195,7 +14210,7 @@
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>475</t>
+          <t>1205</t>
         </is>
       </c>
       <c r="D476" t="inlineStr">
@@ -14224,7 +14239,7 @@
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>476</t>
+          <t>1220</t>
         </is>
       </c>
       <c r="D477" t="inlineStr">
@@ -14253,7 +14268,7 @@
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>477</t>
+          <t>1222</t>
         </is>
       </c>
       <c r="D478" t="inlineStr">
@@ -14282,7 +14297,7 @@
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>1224</t>
         </is>
       </c>
       <c r="D479" t="inlineStr">
@@ -14311,7 +14326,7 @@
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>479</t>
+          <t>1225</t>
         </is>
       </c>
       <c r="D480" t="inlineStr">
@@ -14340,7 +14355,7 @@
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>480</t>
+          <t>1227</t>
         </is>
       </c>
       <c r="D481" t="inlineStr">
@@ -14369,7 +14384,7 @@
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>481</t>
+          <t>1228</t>
         </is>
       </c>
       <c r="D482" t="inlineStr">
@@ -14398,7 +14413,7 @@
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>1230</t>
         </is>
       </c>
       <c r="D483" t="inlineStr">
@@ -14427,7 +14442,7 @@
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>483</t>
+          <t>1232</t>
         </is>
       </c>
       <c r="D484" t="inlineStr">
@@ -14456,7 +14471,7 @@
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>484</t>
+          <t>1234</t>
         </is>
       </c>
       <c r="D485" t="inlineStr">
@@ -14485,7 +14500,7 @@
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>485</t>
+          <t>1235</t>
         </is>
       </c>
       <c r="D486" t="inlineStr">
@@ -14514,7 +14529,7 @@
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>486</t>
+          <t>1237</t>
         </is>
       </c>
       <c r="D487" t="inlineStr">
@@ -14543,7 +14558,7 @@
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>487</t>
+          <t>1242</t>
         </is>
       </c>
       <c r="D488" t="inlineStr">
@@ -14572,7 +14587,7 @@
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>488</t>
+          <t>1244</t>
         </is>
       </c>
       <c r="D489" t="inlineStr">
@@ -14601,7 +14616,7 @@
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>489</t>
+          <t>1249</t>
         </is>
       </c>
       <c r="D490" t="inlineStr">
@@ -14630,7 +14645,7 @@
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>490</t>
+          <t>1250</t>
         </is>
       </c>
       <c r="D491" t="inlineStr">
@@ -14659,7 +14674,7 @@
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>491</t>
+          <t>1252</t>
         </is>
       </c>
       <c r="D492" t="inlineStr">
@@ -14688,7 +14703,7 @@
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>492</t>
+          <t>1256</t>
         </is>
       </c>
       <c r="D493" t="inlineStr">
@@ -14717,7 +14732,7 @@
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>493</t>
+          <t>1259</t>
         </is>
       </c>
       <c r="D494" t="inlineStr">
@@ -14746,7 +14761,7 @@
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>494</t>
+          <t>1282</t>
         </is>
       </c>
       <c r="D495" t="inlineStr">
@@ -14775,7 +14790,7 @@
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>495</t>
+          <t>1304</t>
         </is>
       </c>
       <c r="D496" t="inlineStr">
@@ -14804,7 +14819,7 @@
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>496</t>
+          <t>1305</t>
         </is>
       </c>
       <c r="D497" t="inlineStr">
@@ -14833,7 +14848,7 @@
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>497</t>
+          <t>1330</t>
         </is>
       </c>
       <c r="D498" t="inlineStr">
@@ -14862,7 +14877,7 @@
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>498</t>
+          <t>1331</t>
         </is>
       </c>
       <c r="D499" t="inlineStr">
@@ -14891,7 +14906,7 @@
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>499</t>
+          <t>1333</t>
         </is>
       </c>
       <c r="D500" t="inlineStr">
@@ -14920,7 +14935,7 @@
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>1334</t>
         </is>
       </c>
       <c r="D501" t="inlineStr">
@@ -14949,7 +14964,7 @@
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>501</t>
+          <t>1336</t>
         </is>
       </c>
       <c r="D502" t="inlineStr">
@@ -14978,7 +14993,7 @@
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>502</t>
+          <t>1337</t>
         </is>
       </c>
       <c r="D503" t="inlineStr">
@@ -15007,7 +15022,7 @@
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>503</t>
+          <t>1338</t>
         </is>
       </c>
       <c r="D504" t="inlineStr">
@@ -15036,7 +15051,7 @@
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>504</t>
+          <t>1339</t>
         </is>
       </c>
       <c r="D505" t="inlineStr">
@@ -15065,7 +15080,7 @@
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>505</t>
+          <t>1340</t>
         </is>
       </c>
       <c r="D506" t="inlineStr">
@@ -15094,7 +15109,7 @@
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>506</t>
+          <t>1341</t>
         </is>
       </c>
       <c r="D507" t="inlineStr">
@@ -15123,7 +15138,7 @@
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>507</t>
+          <t>1343</t>
         </is>
       </c>
       <c r="D508" t="inlineStr">
@@ -15152,7 +15167,7 @@
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>508</t>
+          <t>1344</t>
         </is>
       </c>
       <c r="D509" t="inlineStr">
@@ -15181,7 +15196,7 @@
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>1347</t>
         </is>
       </c>
       <c r="D510" t="inlineStr">
@@ -15210,7 +15225,7 @@
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>510</t>
+          <t>1348</t>
         </is>
       </c>
       <c r="D511" t="inlineStr">
@@ -15239,7 +15254,7 @@
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>1350</t>
         </is>
       </c>
       <c r="D512" t="inlineStr">
@@ -15268,7 +15283,7 @@
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>1351</t>
         </is>
       </c>
       <c r="D513" t="inlineStr">
@@ -15297,7 +15312,7 @@
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>513</t>
+          <t>1352</t>
         </is>
       </c>
       <c r="D514" t="inlineStr">
@@ -15326,7 +15341,7 @@
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>514</t>
+          <t>1354</t>
         </is>
       </c>
       <c r="D515" t="inlineStr">
@@ -15355,7 +15370,7 @@
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>515</t>
+          <t>1357</t>
         </is>
       </c>
       <c r="D516" t="inlineStr">
@@ -15384,7 +15399,7 @@
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>516</t>
+          <t>1370</t>
         </is>
       </c>
       <c r="D517" t="inlineStr">
@@ -15413,7 +15428,7 @@
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>517</t>
+          <t>1394</t>
         </is>
       </c>
       <c r="D518" t="inlineStr">
@@ -15442,7 +15457,7 @@
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>518</t>
+          <t>1398</t>
         </is>
       </c>
       <c r="D519" t="inlineStr">
@@ -15471,7 +15486,7 @@
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>519</t>
+          <t>1399</t>
         </is>
       </c>
       <c r="D520" t="inlineStr">
@@ -15500,7 +15515,7 @@
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>520</t>
+          <t>1400</t>
         </is>
       </c>
       <c r="D521" t="inlineStr">
@@ -15529,7 +15544,7 @@
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>521</t>
+          <t>1402</t>
         </is>
       </c>
       <c r="D522" t="inlineStr">
@@ -15558,7 +15573,7 @@
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>522</t>
+          <t>1417</t>
         </is>
       </c>
       <c r="D523" t="inlineStr">
@@ -15587,7 +15602,7 @@
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>523</t>
+          <t>1433</t>
         </is>
       </c>
       <c r="D524" t="inlineStr">
@@ -15616,7 +15631,7 @@
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>524</t>
+          <t>1434</t>
         </is>
       </c>
       <c r="D525" t="inlineStr">
@@ -15645,7 +15660,7 @@
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>1435</t>
         </is>
       </c>
       <c r="D526" t="inlineStr">
@@ -15674,7 +15689,7 @@
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>1453</t>
         </is>
       </c>
       <c r="D527" t="inlineStr">
@@ -15703,7 +15718,7 @@
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>527</t>
+          <t>1455</t>
         </is>
       </c>
       <c r="D528" t="inlineStr">
@@ -15732,7 +15747,7 @@
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>528</t>
+          <t>1456</t>
         </is>
       </c>
       <c r="D529" t="inlineStr">
@@ -15761,7 +15776,7 @@
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>529</t>
+          <t>1458</t>
         </is>
       </c>
       <c r="D530" t="inlineStr">
@@ -15790,7 +15805,7 @@
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>530</t>
+          <t>1460</t>
         </is>
       </c>
       <c r="D531" t="inlineStr">
@@ -15819,7 +15834,7 @@
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>531</t>
+          <t>1462</t>
         </is>
       </c>
       <c r="D532" t="inlineStr">
@@ -15848,7 +15863,7 @@
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>532</t>
+          <t>1463</t>
         </is>
       </c>
       <c r="D533" t="inlineStr">
@@ -15877,7 +15892,7 @@
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>533</t>
+          <t>1465</t>
         </is>
       </c>
       <c r="D534" t="inlineStr">
@@ -15906,7 +15921,7 @@
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>534</t>
+          <t>1466</t>
         </is>
       </c>
       <c r="D535" t="inlineStr">
@@ -15935,7 +15950,7 @@
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>535</t>
+          <t>1468</t>
         </is>
       </c>
       <c r="D536" t="inlineStr">
@@ -15964,7 +15979,7 @@
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>536</t>
+          <t>1470</t>
         </is>
       </c>
       <c r="D537" t="inlineStr">
@@ -15993,7 +16008,7 @@
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>537</t>
+          <t>1472</t>
         </is>
       </c>
       <c r="D538" t="inlineStr">
@@ -16022,7 +16037,7 @@
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>538</t>
+          <t>1473</t>
         </is>
       </c>
       <c r="D539" t="inlineStr">
@@ -16051,7 +16066,7 @@
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>539</t>
+          <t>1474</t>
         </is>
       </c>
       <c r="D540" t="inlineStr">
@@ -16080,7 +16095,7 @@
       </c>
       <c r="C541" t="inlineStr">
         <is>
-          <t>540</t>
+          <t>1475</t>
         </is>
       </c>
       <c r="D541" t="inlineStr">
@@ -16109,7 +16124,7 @@
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>541</t>
+          <t>1477</t>
         </is>
       </c>
       <c r="D542" t="inlineStr">
@@ -16138,7 +16153,7 @@
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>542</t>
+          <t>1479</t>
         </is>
       </c>
       <c r="D543" t="inlineStr">
@@ -16167,7 +16182,7 @@
       </c>
       <c r="C544" t="inlineStr">
         <is>
-          <t>543</t>
+          <t>1482</t>
         </is>
       </c>
       <c r="D544" t="inlineStr">
@@ -16196,7 +16211,7 @@
       </c>
       <c r="C545" t="inlineStr">
         <is>
-          <t>544</t>
+          <t>1483</t>
         </is>
       </c>
       <c r="D545" t="inlineStr">
@@ -16225,7 +16240,7 @@
       </c>
       <c r="C546" t="inlineStr">
         <is>
-          <t>545</t>
+          <t>1484</t>
         </is>
       </c>
       <c r="D546" t="inlineStr">
@@ -16254,7 +16269,7 @@
       </c>
       <c r="C547" t="inlineStr">
         <is>
-          <t>546</t>
+          <t>1485</t>
         </is>
       </c>
       <c r="D547" t="inlineStr">
@@ -16283,7 +16298,7 @@
       </c>
       <c r="C548" t="inlineStr">
         <is>
-          <t>547</t>
+          <t>1486</t>
         </is>
       </c>
       <c r="D548" t="inlineStr">
@@ -16312,7 +16327,7 @@
       </c>
       <c r="C549" t="inlineStr">
         <is>
-          <t>548</t>
+          <t>1489</t>
         </is>
       </c>
       <c r="D549" t="inlineStr">
@@ -16341,7 +16356,7 @@
       </c>
       <c r="C550" t="inlineStr">
         <is>
-          <t>549</t>
+          <t>1491</t>
         </is>
       </c>
       <c r="D550" t="inlineStr">
@@ -16370,7 +16385,7 @@
       </c>
       <c r="C551" t="inlineStr">
         <is>
-          <t>550</t>
+          <t>1493</t>
         </is>
       </c>
       <c r="D551" t="inlineStr">
@@ -16399,7 +16414,7 @@
       </c>
       <c r="C552" t="inlineStr">
         <is>
-          <t>551</t>
+          <t>1496</t>
         </is>
       </c>
       <c r="D552" t="inlineStr">
@@ -16428,7 +16443,7 @@
       </c>
       <c r="C553" t="inlineStr">
         <is>
-          <t>552</t>
+          <t>1499</t>
         </is>
       </c>
       <c r="D553" t="inlineStr">
@@ -16457,7 +16472,7 @@
       </c>
       <c r="C554" t="inlineStr">
         <is>
-          <t>553</t>
+          <t>1500</t>
         </is>
       </c>
       <c r="D554" t="inlineStr">
@@ -16486,7 +16501,7 @@
       </c>
       <c r="C555" t="inlineStr">
         <is>
-          <t>554</t>
+          <t>1501</t>
         </is>
       </c>
       <c r="D555" t="inlineStr">
@@ -16515,7 +16530,7 @@
       </c>
       <c r="C556" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>1502</t>
         </is>
       </c>
       <c r="D556" t="inlineStr">
@@ -16544,7 +16559,7 @@
       </c>
       <c r="C557" t="inlineStr">
         <is>
-          <t>556</t>
+          <t>1504</t>
         </is>
       </c>
       <c r="D557" t="inlineStr">
@@ -16573,7 +16588,7 @@
       </c>
       <c r="C558" t="inlineStr">
         <is>
-          <t>557</t>
+          <t>1506</t>
         </is>
       </c>
       <c r="D558" t="inlineStr">
@@ -16602,7 +16617,7 @@
       </c>
       <c r="C559" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>1509</t>
         </is>
       </c>
       <c r="D559" t="inlineStr">
@@ -16631,7 +16646,7 @@
       </c>
       <c r="C560" t="inlineStr">
         <is>
-          <t>559</t>
+          <t>1510</t>
         </is>
       </c>
       <c r="D560" t="inlineStr">
@@ -16660,7 +16675,7 @@
       </c>
       <c r="C561" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>1514</t>
         </is>
       </c>
       <c r="D561" t="inlineStr">
@@ -16689,7 +16704,7 @@
       </c>
       <c r="C562" t="inlineStr">
         <is>
-          <t>561</t>
+          <t>1515</t>
         </is>
       </c>
       <c r="D562" t="inlineStr">
@@ -16718,7 +16733,7 @@
       </c>
       <c r="C563" t="inlineStr">
         <is>
-          <t>562</t>
+          <t>1517</t>
         </is>
       </c>
       <c r="D563" t="inlineStr">
@@ -16747,7 +16762,7 @@
       </c>
       <c r="C564" t="inlineStr">
         <is>
-          <t>563</t>
+          <t>1528</t>
         </is>
       </c>
       <c r="D564" t="inlineStr">
@@ -16776,7 +16791,7 @@
       </c>
       <c r="C565" t="inlineStr">
         <is>
-          <t>564</t>
+          <t>1542</t>
         </is>
       </c>
       <c r="D565" t="inlineStr">
@@ -16805,7 +16820,7 @@
       </c>
       <c r="C566" t="inlineStr">
         <is>
-          <t>565</t>
+          <t>1558</t>
         </is>
       </c>
       <c r="D566" t="inlineStr">
@@ -16834,7 +16849,7 @@
       </c>
       <c r="C567" t="inlineStr">
         <is>
-          <t>566</t>
+          <t>1559</t>
         </is>
       </c>
       <c r="D567" t="inlineStr">
@@ -16863,7 +16878,7 @@
       </c>
       <c r="C568" t="inlineStr">
         <is>
-          <t>567</t>
+          <t>1561</t>
         </is>
       </c>
       <c r="D568" t="inlineStr">
@@ -16892,7 +16907,7 @@
       </c>
       <c r="C569" t="inlineStr">
         <is>
-          <t>568</t>
+          <t>1576</t>
         </is>
       </c>
       <c r="D569" t="inlineStr">
@@ -16921,7 +16936,7 @@
       </c>
       <c r="C570" t="inlineStr">
         <is>
-          <t>569</t>
+          <t>1577</t>
         </is>
       </c>
       <c r="D570" t="inlineStr">
@@ -16950,7 +16965,7 @@
       </c>
       <c r="C571" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>1579</t>
         </is>
       </c>
       <c r="D571" t="inlineStr">
@@ -16979,7 +16994,7 @@
       </c>
       <c r="C572" t="inlineStr">
         <is>
-          <t>571</t>
+          <t>1593</t>
         </is>
       </c>
       <c r="D572" t="inlineStr">
@@ -17008,7 +17023,7 @@
       </c>
       <c r="C573" t="inlineStr">
         <is>
-          <t>572</t>
+          <t>1607</t>
         </is>
       </c>
       <c r="D573" t="inlineStr">
@@ -17037,7 +17052,7 @@
       </c>
       <c r="C574" t="inlineStr">
         <is>
-          <t>573</t>
+          <t>1618</t>
         </is>
       </c>
       <c r="D574" t="inlineStr">
@@ -17066,7 +17081,7 @@
       </c>
       <c r="C575" t="inlineStr">
         <is>
-          <t>574</t>
+          <t>1629</t>
         </is>
       </c>
       <c r="D575" t="inlineStr">
@@ -17095,7 +17110,7 @@
       </c>
       <c r="C576" t="inlineStr">
         <is>
-          <t>575</t>
+          <t>1643</t>
         </is>
       </c>
       <c r="D576" t="inlineStr">
@@ -17124,7 +17139,7 @@
       </c>
       <c r="C577" t="inlineStr">
         <is>
-          <t>576</t>
+          <t>1644</t>
         </is>
       </c>
       <c r="D577" t="inlineStr">
@@ -17153,7 +17168,7 @@
       </c>
       <c r="C578" t="inlineStr">
         <is>
-          <t>577</t>
+          <t>1645</t>
         </is>
       </c>
       <c r="D578" t="inlineStr">
@@ -17182,7 +17197,7 @@
       </c>
       <c r="C579" t="inlineStr">
         <is>
-          <t>578</t>
+          <t>1647</t>
         </is>
       </c>
       <c r="D579" t="inlineStr">
@@ -17211,7 +17226,7 @@
       </c>
       <c r="C580" t="inlineStr">
         <is>
-          <t>579</t>
+          <t>1662</t>
         </is>
       </c>
       <c r="D580" t="inlineStr">
@@ -17240,7 +17255,7 @@
       </c>
       <c r="C581" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>1663</t>
         </is>
       </c>
       <c r="D581" t="inlineStr">
@@ -17269,7 +17284,7 @@
       </c>
       <c r="C582" t="inlineStr">
         <is>
-          <t>581</t>
+          <t>1664</t>
         </is>
       </c>
       <c r="D582" t="inlineStr">
@@ -17298,7 +17313,7 @@
       </c>
       <c r="C583" t="inlineStr">
         <is>
-          <t>582</t>
+          <t>1666</t>
         </is>
       </c>
       <c r="D583" t="inlineStr">
@@ -17327,7 +17342,7 @@
       </c>
       <c r="C584" t="inlineStr">
         <is>
-          <t>583</t>
+          <t>1670</t>
         </is>
       </c>
       <c r="D584" t="inlineStr">
@@ -17356,7 +17371,7 @@
       </c>
       <c r="C585" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>1672</t>
         </is>
       </c>
       <c r="D585" t="inlineStr">
@@ -17385,7 +17400,7 @@
       </c>
       <c r="C586" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>1684</t>
         </is>
       </c>
       <c r="D586" t="inlineStr">
@@ -17414,7 +17429,7 @@
       </c>
       <c r="C587" t="inlineStr">
         <is>
-          <t>586</t>
+          <t>1685</t>
         </is>
       </c>
       <c r="D587" t="inlineStr">
@@ -17443,7 +17458,7 @@
       </c>
       <c r="C588" t="inlineStr">
         <is>
-          <t>587</t>
+          <t>1688</t>
         </is>
       </c>
       <c r="D588" t="inlineStr">
@@ -17472,7 +17487,7 @@
       </c>
       <c r="C589" t="inlineStr">
         <is>
-          <t>588</t>
+          <t>1689</t>
         </is>
       </c>
       <c r="D589" t="inlineStr">
@@ -17501,7 +17516,7 @@
       </c>
       <c r="C590" t="inlineStr">
         <is>
-          <t>589</t>
+          <t>1690</t>
         </is>
       </c>
       <c r="D590" t="inlineStr">
@@ -17530,7 +17545,7 @@
       </c>
       <c r="C591" t="inlineStr">
         <is>
-          <t>590</t>
+          <t>1691</t>
         </is>
       </c>
       <c r="D591" t="inlineStr">
@@ -17559,7 +17574,7 @@
       </c>
       <c r="C592" t="inlineStr">
         <is>
-          <t>591</t>
+          <t>1692</t>
         </is>
       </c>
       <c r="D592" t="inlineStr">
@@ -17588,7 +17603,7 @@
       </c>
       <c r="C593" t="inlineStr">
         <is>
-          <t>592</t>
+          <t>1694</t>
         </is>
       </c>
       <c r="D593" t="inlineStr">
@@ -17617,7 +17632,7 @@
       </c>
       <c r="C594" t="inlineStr">
         <is>
-          <t>593</t>
+          <t>1695</t>
         </is>
       </c>
       <c r="D594" t="inlineStr">
@@ -17646,7 +17661,7 @@
       </c>
       <c r="C595" t="inlineStr">
         <is>
-          <t>594</t>
+          <t>1698</t>
         </is>
       </c>
       <c r="D595" t="inlineStr">
@@ -17675,7 +17690,7 @@
       </c>
       <c r="C596" t="inlineStr">
         <is>
-          <t>595</t>
+          <t>1710</t>
         </is>
       </c>
       <c r="D596" t="inlineStr">
@@ -17704,7 +17719,7 @@
       </c>
       <c r="C597" t="inlineStr">
         <is>
-          <t>596</t>
+          <t>1711</t>
         </is>
       </c>
       <c r="D597" t="inlineStr">
@@ -17733,7 +17748,7 @@
       </c>
       <c r="C598" t="inlineStr">
         <is>
-          <t>597</t>
+          <t>1714</t>
         </is>
       </c>
       <c r="D598" t="inlineStr">
@@ -17762,7 +17777,7 @@
       </c>
       <c r="C599" t="inlineStr">
         <is>
-          <t>598</t>
+          <t>1715</t>
         </is>
       </c>
       <c r="D599" t="inlineStr">
@@ -17791,7 +17806,7 @@
       </c>
       <c r="C600" t="inlineStr">
         <is>
-          <t>599</t>
+          <t>1716</t>
         </is>
       </c>
       <c r="D600" t="inlineStr">
@@ -17820,7 +17835,7 @@
       </c>
       <c r="C601" t="inlineStr">
         <is>
-          <t>600</t>
+          <t>1717</t>
         </is>
       </c>
       <c r="D601" t="inlineStr">
@@ -17849,7 +17864,7 @@
       </c>
       <c r="C602" t="inlineStr">
         <is>
-          <t>601</t>
+          <t>1718</t>
         </is>
       </c>
       <c r="D602" t="inlineStr">
@@ -17878,7 +17893,7 @@
       </c>
       <c r="C603" t="inlineStr">
         <is>
-          <t>602</t>
+          <t>1720</t>
         </is>
       </c>
       <c r="D603" t="inlineStr">
@@ -17907,7 +17922,7 @@
       </c>
       <c r="C604" t="inlineStr">
         <is>
-          <t>603</t>
+          <t>1721</t>
         </is>
       </c>
       <c r="D604" t="inlineStr">
@@ -17936,7 +17951,7 @@
       </c>
       <c r="C605" t="inlineStr">
         <is>
-          <t>604</t>
+          <t>1724</t>
         </is>
       </c>
       <c r="D605" t="inlineStr">
@@ -17965,7 +17980,7 @@
       </c>
       <c r="C606" t="inlineStr">
         <is>
-          <t>605</t>
+          <t>1736</t>
         </is>
       </c>
       <c r="D606" t="inlineStr">
@@ -17994,7 +18009,7 @@
       </c>
       <c r="C607" t="inlineStr">
         <is>
-          <t>606</t>
+          <t>1737</t>
         </is>
       </c>
       <c r="D607" t="inlineStr">
@@ -18023,7 +18038,7 @@
       </c>
       <c r="C608" t="inlineStr">
         <is>
-          <t>607</t>
+          <t>1740</t>
         </is>
       </c>
       <c r="D608" t="inlineStr">
@@ -18052,7 +18067,7 @@
       </c>
       <c r="C609" t="inlineStr">
         <is>
-          <t>608</t>
+          <t>1741</t>
         </is>
       </c>
       <c r="D609" t="inlineStr">
@@ -18081,7 +18096,7 @@
       </c>
       <c r="C610" t="inlineStr">
         <is>
-          <t>609</t>
+          <t>1742</t>
         </is>
       </c>
       <c r="D610" t="inlineStr">
@@ -18110,7 +18125,7 @@
       </c>
       <c r="C611" t="inlineStr">
         <is>
-          <t>610</t>
+          <t>1743</t>
         </is>
       </c>
       <c r="D611" t="inlineStr">
@@ -18139,7 +18154,7 @@
       </c>
       <c r="C612" t="inlineStr">
         <is>
-          <t>611</t>
+          <t>1744</t>
         </is>
       </c>
       <c r="D612" t="inlineStr">
@@ -18168,7 +18183,7 @@
       </c>
       <c r="C613" t="inlineStr">
         <is>
-          <t>612</t>
+          <t>1746</t>
         </is>
       </c>
       <c r="D613" t="inlineStr">
@@ -18197,7 +18212,7 @@
       </c>
       <c r="C614" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>1747</t>
         </is>
       </c>
       <c r="D614" t="inlineStr">
@@ -18226,7 +18241,7 @@
       </c>
       <c r="C615" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>1750</t>
         </is>
       </c>
       <c r="D615" t="inlineStr">
@@ -18255,7 +18270,7 @@
       </c>
       <c r="C616" t="inlineStr">
         <is>
-          <t>615</t>
+          <t>1762</t>
         </is>
       </c>
       <c r="D616" t="inlineStr">
@@ -18284,7 +18299,7 @@
       </c>
       <c r="C617" t="inlineStr">
         <is>
-          <t>616</t>
+          <t>1763</t>
         </is>
       </c>
       <c r="D617" t="inlineStr">
@@ -18313,7 +18328,7 @@
       </c>
       <c r="C618" t="inlineStr">
         <is>
-          <t>617</t>
+          <t>1766</t>
         </is>
       </c>
       <c r="D618" t="inlineStr">
@@ -18342,7 +18357,7 @@
       </c>
       <c r="C619" t="inlineStr">
         <is>
-          <t>618</t>
+          <t>1767</t>
         </is>
       </c>
       <c r="D619" t="inlineStr">
@@ -18371,7 +18386,7 @@
       </c>
       <c r="C620" t="inlineStr">
         <is>
-          <t>619</t>
+          <t>1768</t>
         </is>
       </c>
       <c r="D620" t="inlineStr">
@@ -18400,7 +18415,7 @@
       </c>
       <c r="C621" t="inlineStr">
         <is>
-          <t>620</t>
+          <t>1769</t>
         </is>
       </c>
       <c r="D621" t="inlineStr">
@@ -18429,7 +18444,7 @@
       </c>
       <c r="C622" t="inlineStr">
         <is>
-          <t>621</t>
+          <t>1770</t>
         </is>
       </c>
       <c r="D622" t="inlineStr">
@@ -18458,7 +18473,7 @@
       </c>
       <c r="C623" t="inlineStr">
         <is>
-          <t>622</t>
+          <t>1772</t>
         </is>
       </c>
       <c r="D623" t="inlineStr">
@@ -18487,7 +18502,7 @@
       </c>
       <c r="C624" t="inlineStr">
         <is>
-          <t>623</t>
+          <t>1773</t>
         </is>
       </c>
       <c r="D624" t="inlineStr">
@@ -18516,7 +18531,7 @@
       </c>
       <c r="C625" t="inlineStr">
         <is>
-          <t>624</t>
+          <t>1776</t>
         </is>
       </c>
       <c r="D625" t="inlineStr">
@@ -18545,7 +18560,7 @@
       </c>
       <c r="C626" t="inlineStr">
         <is>
-          <t>625</t>
+          <t>1788</t>
         </is>
       </c>
       <c r="D626" t="inlineStr">
@@ -18574,7 +18589,7 @@
       </c>
       <c r="C627" t="inlineStr">
         <is>
-          <t>626</t>
+          <t>1789</t>
         </is>
       </c>
       <c r="D627" t="inlineStr">
@@ -18603,7 +18618,7 @@
       </c>
       <c r="C628" t="inlineStr">
         <is>
-          <t>627</t>
+          <t>1792</t>
         </is>
       </c>
       <c r="D628" t="inlineStr">
@@ -18632,7 +18647,7 @@
       </c>
       <c r="C629" t="inlineStr">
         <is>
-          <t>628</t>
+          <t>1804</t>
         </is>
       </c>
       <c r="D629" t="inlineStr">
@@ -18661,7 +18676,7 @@
       </c>
       <c r="C630" t="inlineStr">
         <is>
-          <t>629</t>
+          <t>1805</t>
         </is>
       </c>
       <c r="D630" t="inlineStr">
@@ -18690,7 +18705,7 @@
       </c>
       <c r="C631" t="inlineStr">
         <is>
-          <t>630</t>
+          <t>1808</t>
         </is>
       </c>
       <c r="D631" t="inlineStr">
@@ -18719,7 +18734,7 @@
       </c>
       <c r="C632" t="inlineStr">
         <is>
-          <t>631</t>
+          <t>1809</t>
         </is>
       </c>
       <c r="D632" t="inlineStr">
@@ -18748,7 +18763,7 @@
       </c>
       <c r="C633" t="inlineStr">
         <is>
-          <t>632</t>
+          <t>1810</t>
         </is>
       </c>
       <c r="D633" t="inlineStr">
@@ -18777,7 +18792,7 @@
       </c>
       <c r="C634" t="inlineStr">
         <is>
-          <t>633</t>
+          <t>1811</t>
         </is>
       </c>
       <c r="D634" t="inlineStr">
@@ -18806,7 +18821,7 @@
       </c>
       <c r="C635" t="inlineStr">
         <is>
-          <t>634</t>
+          <t>1812</t>
         </is>
       </c>
       <c r="D635" t="inlineStr">
@@ -18835,7 +18850,7 @@
       </c>
       <c r="C636" t="inlineStr">
         <is>
-          <t>635</t>
+          <t>1814</t>
         </is>
       </c>
       <c r="D636" t="inlineStr">
@@ -18864,7 +18879,7 @@
       </c>
       <c r="C637" t="inlineStr">
         <is>
-          <t>636</t>
+          <t>1815</t>
         </is>
       </c>
       <c r="D637" t="inlineStr">
@@ -18893,7 +18908,7 @@
       </c>
       <c r="C638" t="inlineStr">
         <is>
-          <t>637</t>
+          <t>1818</t>
         </is>
       </c>
       <c r="D638" t="inlineStr">
@@ -18922,7 +18937,7 @@
       </c>
       <c r="C639" t="inlineStr">
         <is>
-          <t>638</t>
+          <t>1831</t>
         </is>
       </c>
       <c r="D639" t="inlineStr">
@@ -18951,7 +18966,7 @@
       </c>
       <c r="C640" t="inlineStr">
         <is>
-          <t>639</t>
+          <t>1832</t>
         </is>
       </c>
       <c r="D640" t="inlineStr">
@@ -18980,7 +18995,7 @@
       </c>
       <c r="C641" t="inlineStr">
         <is>
-          <t>640</t>
+          <t>1835</t>
         </is>
       </c>
       <c r="D641" t="inlineStr">
@@ -19009,7 +19024,7 @@
       </c>
       <c r="C642" t="inlineStr">
         <is>
-          <t>641</t>
+          <t>1836</t>
         </is>
       </c>
       <c r="D642" t="inlineStr">
@@ -19038,7 +19053,7 @@
       </c>
       <c r="C643" t="inlineStr">
         <is>
-          <t>642</t>
+          <t>1837</t>
         </is>
       </c>
       <c r="D643" t="inlineStr">
@@ -19067,7 +19082,7 @@
       </c>
       <c r="C644" t="inlineStr">
         <is>
-          <t>643</t>
+          <t>1838</t>
         </is>
       </c>
       <c r="D644" t="inlineStr">
@@ -19096,7 +19111,7 @@
       </c>
       <c r="C645" t="inlineStr">
         <is>
-          <t>644</t>
+          <t>1839</t>
         </is>
       </c>
       <c r="D645" t="inlineStr">
@@ -19125,7 +19140,7 @@
       </c>
       <c r="C646" t="inlineStr">
         <is>
-          <t>645</t>
+          <t>1841</t>
         </is>
       </c>
       <c r="D646" t="inlineStr">
@@ -19154,7 +19169,7 @@
       </c>
       <c r="C647" t="inlineStr">
         <is>
-          <t>646</t>
+          <t>1842</t>
         </is>
       </c>
       <c r="D647" t="inlineStr">
@@ -19183,7 +19198,7 @@
       </c>
       <c r="C648" t="inlineStr">
         <is>
-          <t>647</t>
+          <t>1845</t>
         </is>
       </c>
       <c r="D648" t="inlineStr">
@@ -19212,7 +19227,7 @@
       </c>
       <c r="C649" t="inlineStr">
         <is>
-          <t>648</t>
+          <t>1856</t>
         </is>
       </c>
       <c r="D649" t="inlineStr">
@@ -19241,7 +19256,7 @@
       </c>
       <c r="C650" t="inlineStr">
         <is>
-          <t>649</t>
+          <t>1857</t>
         </is>
       </c>
       <c r="D650" t="inlineStr">
@@ -19270,7 +19285,7 @@
       </c>
       <c r="C651" t="inlineStr">
         <is>
-          <t>650</t>
+          <t>1858</t>
         </is>
       </c>
       <c r="D651" t="inlineStr">
@@ -19299,7 +19314,7 @@
       </c>
       <c r="C652" t="inlineStr">
         <is>
-          <t>651</t>
+          <t>1860</t>
         </is>
       </c>
       <c r="D652" t="inlineStr">
@@ -19328,7 +19343,7 @@
       </c>
       <c r="C653" t="inlineStr">
         <is>
-          <t>652</t>
+          <t>1871</t>
         </is>
       </c>
       <c r="D653" t="inlineStr">
@@ -19357,7 +19372,7 @@
       </c>
       <c r="C654" t="inlineStr">
         <is>
-          <t>653</t>
+          <t>1872</t>
         </is>
       </c>
       <c r="D654" t="inlineStr">
@@ -19386,7 +19401,7 @@
       </c>
       <c r="C655" t="inlineStr">
         <is>
-          <t>654</t>
+          <t>1873</t>
         </is>
       </c>
       <c r="D655" t="inlineStr">
@@ -19415,7 +19430,7 @@
       </c>
       <c r="C656" t="inlineStr">
         <is>
-          <t>655</t>
+          <t>1875</t>
         </is>
       </c>
       <c r="D656" t="inlineStr">
@@ -19444,7 +19459,7 @@
       </c>
       <c r="C657" t="inlineStr">
         <is>
-          <t>656</t>
+          <t>1886</t>
         </is>
       </c>
       <c r="D657" t="inlineStr">
@@ -19473,7 +19488,7 @@
       </c>
       <c r="C658" t="inlineStr">
         <is>
-          <t>657</t>
+          <t>1887</t>
         </is>
       </c>
       <c r="D658" t="inlineStr">
@@ -19502,7 +19517,7 @@
       </c>
       <c r="C659" t="inlineStr">
         <is>
-          <t>658</t>
+          <t>1888</t>
         </is>
       </c>
       <c r="D659" t="inlineStr">
@@ -19531,7 +19546,7 @@
       </c>
       <c r="C660" t="inlineStr">
         <is>
-          <t>659</t>
+          <t>1889</t>
         </is>
       </c>
       <c r="D660" t="inlineStr">
@@ -19560,7 +19575,7 @@
       </c>
       <c r="C661" t="inlineStr">
         <is>
-          <t>660</t>
+          <t>1891</t>
         </is>
       </c>
       <c r="D661" t="inlineStr">
@@ -19589,7 +19604,7 @@
       </c>
       <c r="C662" t="inlineStr">
         <is>
-          <t>661</t>
+          <t>1902</t>
         </is>
       </c>
       <c r="D662" t="inlineStr">
@@ -19618,7 +19633,7 @@
       </c>
       <c r="C663" t="inlineStr">
         <is>
-          <t>662</t>
+          <t>1903</t>
         </is>
       </c>
       <c r="D663" t="inlineStr">
@@ -19647,7 +19662,7 @@
       </c>
       <c r="C664" t="inlineStr">
         <is>
-          <t>663</t>
+          <t>1904</t>
         </is>
       </c>
       <c r="D664" t="inlineStr">
@@ -19676,7 +19691,7 @@
       </c>
       <c r="C665" t="inlineStr">
         <is>
-          <t>664</t>
+          <t>1905</t>
         </is>
       </c>
       <c r="D665" t="inlineStr">
@@ -19705,7 +19720,7 @@
       </c>
       <c r="C666" t="inlineStr">
         <is>
-          <t>665</t>
+          <t>1907</t>
         </is>
       </c>
       <c r="D666" t="inlineStr">
@@ -19734,7 +19749,7 @@
       </c>
       <c r="C667" t="inlineStr">
         <is>
-          <t>666</t>
+          <t>1918</t>
         </is>
       </c>
       <c r="D667" t="inlineStr">
@@ -19763,7 +19778,7 @@
       </c>
       <c r="C668" t="inlineStr">
         <is>
-          <t>667</t>
+          <t>1919</t>
         </is>
       </c>
       <c r="D668" t="inlineStr">
@@ -19792,7 +19807,7 @@
       </c>
       <c r="C669" t="inlineStr">
         <is>
-          <t>668</t>
+          <t>1920</t>
         </is>
       </c>
       <c r="D669" t="inlineStr">
@@ -19821,7 +19836,7 @@
       </c>
       <c r="C670" t="inlineStr">
         <is>
-          <t>669</t>
+          <t>1922</t>
         </is>
       </c>
       <c r="D670" t="inlineStr">
@@ -19850,7 +19865,7 @@
       </c>
       <c r="C671" t="inlineStr">
         <is>
-          <t>670</t>
+          <t>1933</t>
         </is>
       </c>
       <c r="D671" t="inlineStr">
@@ -19879,7 +19894,7 @@
       </c>
       <c r="C672" t="inlineStr">
         <is>
-          <t>671</t>
+          <t>1934</t>
         </is>
       </c>
       <c r="D672" t="inlineStr">
@@ -19908,7 +19923,7 @@
       </c>
       <c r="C673" t="inlineStr">
         <is>
-          <t>672</t>
+          <t>1935</t>
         </is>
       </c>
       <c r="D673" t="inlineStr">
@@ -19937,7 +19952,7 @@
       </c>
       <c r="C674" t="inlineStr">
         <is>
-          <t>673</t>
+          <t>1937</t>
         </is>
       </c>
       <c r="D674" t="inlineStr">
@@ -19966,7 +19981,7 @@
       </c>
       <c r="C675" t="inlineStr">
         <is>
-          <t>674</t>
+          <t>1963</t>
         </is>
       </c>
       <c r="D675" t="inlineStr">
@@ -19995,7 +20010,7 @@
       </c>
       <c r="C676" t="inlineStr">
         <is>
-          <t>675</t>
+          <t>1964</t>
         </is>
       </c>
       <c r="D676" t="inlineStr">
@@ -20024,7 +20039,7 @@
       </c>
       <c r="C677" t="inlineStr">
         <is>
-          <t>676</t>
+          <t>1966</t>
         </is>
       </c>
       <c r="D677" t="inlineStr">
@@ -20053,7 +20068,7 @@
       </c>
       <c r="C678" t="inlineStr">
         <is>
-          <t>677</t>
+          <t>1967</t>
         </is>
       </c>
       <c r="D678" t="inlineStr">
@@ -20082,7 +20097,7 @@
       </c>
       <c r="C679" t="inlineStr">
         <is>
-          <t>678</t>
+          <t>1968</t>
         </is>
       </c>
       <c r="D679" t="inlineStr">
@@ -20111,7 +20126,7 @@
       </c>
       <c r="C680" t="inlineStr">
         <is>
-          <t>679</t>
+          <t>1970</t>
         </is>
       </c>
       <c r="D680" t="inlineStr">
@@ -20140,7 +20155,7 @@
       </c>
       <c r="C681" t="inlineStr">
         <is>
-          <t>680</t>
+          <t>1971</t>
         </is>
       </c>
       <c r="D681" t="inlineStr">
@@ -20169,7 +20184,7 @@
       </c>
       <c r="C682" t="inlineStr">
         <is>
-          <t>681</t>
+          <t>1972</t>
         </is>
       </c>
       <c r="D682" t="inlineStr">
@@ -20198,7 +20213,7 @@
       </c>
       <c r="C683" t="inlineStr">
         <is>
-          <t>682</t>
+          <t>1975</t>
         </is>
       </c>
       <c r="D683" t="inlineStr">
@@ -20227,7 +20242,7 @@
       </c>
       <c r="C684" t="inlineStr">
         <is>
-          <t>683</t>
+          <t>1976</t>
         </is>
       </c>
       <c r="D684" t="inlineStr">
@@ -20256,7 +20271,7 @@
       </c>
       <c r="C685" t="inlineStr">
         <is>
-          <t>684</t>
+          <t>1981</t>
         </is>
       </c>
       <c r="D685" t="inlineStr">
@@ -20285,7 +20300,7 @@
       </c>
       <c r="C686" t="inlineStr">
         <is>
-          <t>685</t>
+          <t>1982</t>
         </is>
       </c>
       <c r="D686" t="inlineStr">
@@ -20314,7 +20329,7 @@
       </c>
       <c r="C687" t="inlineStr">
         <is>
-          <t>686</t>
+          <t>1983</t>
         </is>
       </c>
       <c r="D687" t="inlineStr">
@@ -20343,7 +20358,7 @@
       </c>
       <c r="C688" t="inlineStr">
         <is>
-          <t>687</t>
+          <t>1986</t>
         </is>
       </c>
       <c r="D688" t="inlineStr">
@@ -20372,7 +20387,7 @@
       </c>
       <c r="C689" t="inlineStr">
         <is>
-          <t>688</t>
+          <t>1987</t>
         </is>
       </c>
       <c r="D689" t="inlineStr">
@@ -20401,7 +20416,7 @@
       </c>
       <c r="C690" t="inlineStr">
         <is>
-          <t>689</t>
+          <t>1993</t>
         </is>
       </c>
       <c r="D690" t="inlineStr">
@@ -20430,7 +20445,7 @@
       </c>
       <c r="C691" t="inlineStr">
         <is>
-          <t>690</t>
+          <t>1996</t>
         </is>
       </c>
       <c r="D691" t="inlineStr">
@@ -20459,7 +20474,7 @@
       </c>
       <c r="C692" t="inlineStr">
         <is>
-          <t>691</t>
+          <t>1998</t>
         </is>
       </c>
       <c r="D692" t="inlineStr">
@@ -20488,7 +20503,7 @@
       </c>
       <c r="C693" t="inlineStr">
         <is>
-          <t>692</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="D693" t="inlineStr">
@@ -20517,7 +20532,7 @@
       </c>
       <c r="C694" t="inlineStr">
         <is>
-          <t>693</t>
+          <t>2003</t>
         </is>
       </c>
       <c r="D694" t="inlineStr">
@@ -20546,7 +20561,7 @@
       </c>
       <c r="C695" t="inlineStr">
         <is>
-          <t>694</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="D695" t="inlineStr">
@@ -20575,7 +20590,7 @@
       </c>
       <c r="C696" t="inlineStr">
         <is>
-          <t>695</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="D696" t="inlineStr">
@@ -20604,7 +20619,7 @@
       </c>
       <c r="C697" t="inlineStr">
         <is>
-          <t>696</t>
+          <t>2028</t>
         </is>
       </c>
       <c r="D697" t="inlineStr">
@@ -20633,7 +20648,7 @@
       </c>
       <c r="C698" t="inlineStr">
         <is>
-          <t>697</t>
+          <t>2029</t>
         </is>
       </c>
       <c r="D698" t="inlineStr">
@@ -20662,7 +20677,7 @@
       </c>
       <c r="C699" t="inlineStr">
         <is>
-          <t>698</t>
+          <t>2039</t>
         </is>
       </c>
       <c r="D699" t="inlineStr">
@@ -20691,7 +20706,7 @@
       </c>
       <c r="C700" t="inlineStr">
         <is>
-          <t>699</t>
+          <t>2040</t>
         </is>
       </c>
       <c r="D700" t="inlineStr">
@@ -20720,7 +20735,7 @@
       </c>
       <c r="C701" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>2042</t>
         </is>
       </c>
       <c r="D701" t="inlineStr">
@@ -20749,7 +20764,7 @@
       </c>
       <c r="C702" t="inlineStr">
         <is>
-          <t>701</t>
+          <t>2052</t>
         </is>
       </c>
       <c r="D702" t="inlineStr">
@@ -20778,7 +20793,7 @@
       </c>
       <c r="C703" t="inlineStr">
         <is>
-          <t>702</t>
+          <t>2053</t>
         </is>
       </c>
       <c r="D703" t="inlineStr">
@@ -20807,7 +20822,7 @@
       </c>
       <c r="C704" t="inlineStr">
         <is>
-          <t>703</t>
+          <t>2054</t>
         </is>
       </c>
       <c r="D704" t="inlineStr">
@@ -20836,7 +20851,7 @@
       </c>
       <c r="C705" t="inlineStr">
         <is>
-          <t>704</t>
+          <t>2055</t>
         </is>
       </c>
       <c r="D705" t="inlineStr">
@@ -20865,7 +20880,7 @@
       </c>
       <c r="C706" t="inlineStr">
         <is>
-          <t>705</t>
+          <t>2058</t>
         </is>
       </c>
       <c r="D706" t="inlineStr">
@@ -20894,7 +20909,7 @@
       </c>
       <c r="C707" t="inlineStr">
         <is>
-          <t>706</t>
+          <t>2121</t>
         </is>
       </c>
       <c r="D707" t="inlineStr">
@@ -20923,7 +20938,7 @@
       </c>
       <c r="C708" t="inlineStr">
         <is>
-          <t>707</t>
+          <t>2122</t>
         </is>
       </c>
       <c r="D708" t="inlineStr">
@@ -20952,7 +20967,7 @@
       </c>
       <c r="C709" t="inlineStr">
         <is>
-          <t>708</t>
+          <t>2123</t>
         </is>
       </c>
       <c r="D709" t="inlineStr">
@@ -20981,7 +20996,7 @@
       </c>
       <c r="C710" t="inlineStr">
         <is>
-          <t>709</t>
+          <t>2124</t>
         </is>
       </c>
       <c r="D710" t="inlineStr">
@@ -21010,7 +21025,7 @@
       </c>
       <c r="C711" t="inlineStr">
         <is>
-          <t>710</t>
+          <t>2125</t>
         </is>
       </c>
       <c r="D711" t="inlineStr">
@@ -21039,7 +21054,7 @@
       </c>
       <c r="C712" t="inlineStr">
         <is>
-          <t>711</t>
+          <t>2126</t>
         </is>
       </c>
       <c r="D712" t="inlineStr">
@@ -21068,7 +21083,7 @@
       </c>
       <c r="C713" t="inlineStr">
         <is>
-          <t>712</t>
+          <t>2127</t>
         </is>
       </c>
       <c r="D713" t="inlineStr">
@@ -21097,7 +21112,7 @@
       </c>
       <c r="C714" t="inlineStr">
         <is>
-          <t>713</t>
+          <t>2128</t>
         </is>
       </c>
       <c r="D714" t="inlineStr">
@@ -21126,7 +21141,7 @@
       </c>
       <c r="C715" t="inlineStr">
         <is>
-          <t>714</t>
+          <t>2129</t>
         </is>
       </c>
       <c r="D715" t="inlineStr">
@@ -21155,7 +21170,7 @@
       </c>
       <c r="C716" t="inlineStr">
         <is>
-          <t>715</t>
+          <t>2130</t>
         </is>
       </c>
       <c r="D716" t="inlineStr">
@@ -21184,7 +21199,7 @@
       </c>
       <c r="C717" t="inlineStr">
         <is>
-          <t>716</t>
+          <t>2131</t>
         </is>
       </c>
       <c r="D717" t="inlineStr">
@@ -21213,7 +21228,7 @@
       </c>
       <c r="C718" t="inlineStr">
         <is>
-          <t>717</t>
+          <t>2132</t>
         </is>
       </c>
       <c r="D718" t="inlineStr">
@@ -21242,7 +21257,7 @@
       </c>
       <c r="C719" t="inlineStr">
         <is>
-          <t>718</t>
+          <t>2133</t>
         </is>
       </c>
       <c r="D719" t="inlineStr">
@@ -21271,7 +21286,7 @@
       </c>
       <c r="C720" t="inlineStr">
         <is>
-          <t>719</t>
+          <t>2134</t>
         </is>
       </c>
       <c r="D720" t="inlineStr">
@@ -21300,7 +21315,7 @@
       </c>
       <c r="C721" t="inlineStr">
         <is>
-          <t>720</t>
+          <t>2135</t>
         </is>
       </c>
       <c r="D721" t="inlineStr">
@@ -21329,7 +21344,7 @@
       </c>
       <c r="C722" t="inlineStr">
         <is>
-          <t>721</t>
+          <t>2136</t>
         </is>
       </c>
       <c r="D722" t="inlineStr">
@@ -21358,7 +21373,7 @@
       </c>
       <c r="C723" t="inlineStr">
         <is>
-          <t>722</t>
+          <t>2137</t>
         </is>
       </c>
       <c r="D723" t="inlineStr">
@@ -21387,7 +21402,7 @@
       </c>
       <c r="C724" t="inlineStr">
         <is>
-          <t>723</t>
+          <t>2138</t>
         </is>
       </c>
       <c r="D724" t="inlineStr">
@@ -21416,7 +21431,7 @@
       </c>
       <c r="C725" t="inlineStr">
         <is>
-          <t>724</t>
+          <t>2139</t>
         </is>
       </c>
       <c r="D725" t="inlineStr">
@@ -21445,7 +21460,7 @@
       </c>
       <c r="C726" t="inlineStr">
         <is>
-          <t>725</t>
+          <t>2140</t>
         </is>
       </c>
       <c r="D726" t="inlineStr">
@@ -21474,7 +21489,7 @@
       </c>
       <c r="C727" t="inlineStr">
         <is>
-          <t>726</t>
+          <t>2141</t>
         </is>
       </c>
       <c r="D727" t="inlineStr">
@@ -21503,7 +21518,7 @@
       </c>
       <c r="C728" t="inlineStr">
         <is>
-          <t>727</t>
+          <t>2143</t>
         </is>
       </c>
       <c r="D728" t="inlineStr">
@@ -21532,7 +21547,7 @@
       </c>
       <c r="C729" t="inlineStr">
         <is>
-          <t>728</t>
+          <t>2144</t>
         </is>
       </c>
       <c r="D729" t="inlineStr">
@@ -21561,7 +21576,7 @@
       </c>
       <c r="C730" t="inlineStr">
         <is>
-          <t>729</t>
+          <t>2145</t>
         </is>
       </c>
       <c r="D730" t="inlineStr">
@@ -21590,7 +21605,7 @@
       </c>
       <c r="C731" t="inlineStr">
         <is>
-          <t>730</t>
+          <t>2146</t>
         </is>
       </c>
       <c r="D731" t="inlineStr">
@@ -21619,7 +21634,7 @@
       </c>
       <c r="C732" t="inlineStr">
         <is>
-          <t>731</t>
+          <t>2147</t>
         </is>
       </c>
       <c r="D732" t="inlineStr">
@@ -21648,7 +21663,7 @@
       </c>
       <c r="C733" t="inlineStr">
         <is>
-          <t>732</t>
+          <t>2148</t>
         </is>
       </c>
       <c r="D733" t="inlineStr">
@@ -21677,7 +21692,7 @@
       </c>
       <c r="C734" t="inlineStr">
         <is>
-          <t>733</t>
+          <t>2149</t>
         </is>
       </c>
       <c r="D734" t="inlineStr">
@@ -21706,7 +21721,7 @@
       </c>
       <c r="C735" t="inlineStr">
         <is>
-          <t>734</t>
+          <t>2150</t>
         </is>
       </c>
       <c r="D735" t="inlineStr">
@@ -21735,7 +21750,7 @@
       </c>
       <c r="C736" t="inlineStr">
         <is>
-          <t>735</t>
+          <t>2151</t>
         </is>
       </c>
       <c r="D736" t="inlineStr">
@@ -21764,7 +21779,7 @@
       </c>
       <c r="C737" t="inlineStr">
         <is>
-          <t>736</t>
+          <t>2155</t>
         </is>
       </c>
       <c r="D737" t="inlineStr">
@@ -21793,7 +21808,7 @@
       </c>
       <c r="C738" t="inlineStr">
         <is>
-          <t>737</t>
+          <t>2159</t>
         </is>
       </c>
       <c r="D738" t="inlineStr">
@@ -21822,7 +21837,7 @@
       </c>
       <c r="C739" t="inlineStr">
         <is>
-          <t>738</t>
+          <t>2160</t>
         </is>
       </c>
       <c r="D739" t="inlineStr">
@@ -21851,7 +21866,7 @@
       </c>
       <c r="C740" t="inlineStr">
         <is>
-          <t>739</t>
+          <t>2162</t>
         </is>
       </c>
       <c r="D740" t="inlineStr">
@@ -21880,7 +21895,7 @@
       </c>
       <c r="C741" t="inlineStr">
         <is>
-          <t>740</t>
+          <t>2163</t>
         </is>
       </c>
       <c r="D741" t="inlineStr">
@@ -21909,7 +21924,7 @@
       </c>
       <c r="C742" t="inlineStr">
         <is>
-          <t>741</t>
+          <t>2165</t>
         </is>
       </c>
       <c r="D742" t="inlineStr">
@@ -21938,7 +21953,7 @@
       </c>
       <c r="C743" t="inlineStr">
         <is>
-          <t>742</t>
+          <t>2166</t>
         </is>
       </c>
       <c r="D743" t="inlineStr">
@@ -21967,7 +21982,7 @@
       </c>
       <c r="C744" t="inlineStr">
         <is>
-          <t>743</t>
+          <t>2168</t>
         </is>
       </c>
       <c r="D744" t="inlineStr">
@@ -21996,7 +22011,7 @@
       </c>
       <c r="C745" t="inlineStr">
         <is>
-          <t>744</t>
+          <t>2172</t>
         </is>
       </c>
       <c r="D745" t="inlineStr">
@@ -22025,7 +22040,7 @@
       </c>
       <c r="C746" t="inlineStr">
         <is>
-          <t>745</t>
+          <t>2187</t>
         </is>
       </c>
       <c r="D746" t="inlineStr">
@@ -22054,7 +22069,7 @@
       </c>
       <c r="C747" t="inlineStr">
         <is>
-          <t>746</t>
+          <t>2188</t>
         </is>
       </c>
       <c r="D747" t="inlineStr">
@@ -22083,7 +22098,7 @@
       </c>
       <c r="C748" t="inlineStr">
         <is>
-          <t>747</t>
+          <t>2203</t>
         </is>
       </c>
       <c r="D748" t="inlineStr">
@@ -22112,7 +22127,7 @@
       </c>
       <c r="C749" t="inlineStr">
         <is>
-          <t>748</t>
+          <t>2205</t>
         </is>
       </c>
       <c r="D749" t="inlineStr">
@@ -22141,7 +22156,7 @@
       </c>
       <c r="C750" t="inlineStr">
         <is>
-          <t>749</t>
+          <t>2208</t>
         </is>
       </c>
       <c r="D750" t="inlineStr">
@@ -22170,7 +22185,7 @@
       </c>
       <c r="C751" t="inlineStr">
         <is>
-          <t>750</t>
+          <t>2209</t>
         </is>
       </c>
       <c r="D751" t="inlineStr">
@@ -22199,7 +22214,7 @@
       </c>
       <c r="C752" t="inlineStr">
         <is>
-          <t>751</t>
+          <t>2212</t>
         </is>
       </c>
       <c r="D752" t="inlineStr">
@@ -22228,7 +22243,7 @@
       </c>
       <c r="C753" t="inlineStr">
         <is>
-          <t>752</t>
+          <t>2213</t>
         </is>
       </c>
       <c r="D753" t="inlineStr">
@@ -22257,7 +22272,7 @@
       </c>
       <c r="C754" t="inlineStr">
         <is>
-          <t>753</t>
+          <t>2214</t>
         </is>
       </c>
       <c r="D754" t="inlineStr">
@@ -22286,7 +22301,7 @@
       </c>
       <c r="C755" t="inlineStr">
         <is>
-          <t>754</t>
+          <t>2215</t>
         </is>
       </c>
       <c r="D755" t="inlineStr">
@@ -22315,7 +22330,7 @@
       </c>
       <c r="C756" t="inlineStr">
         <is>
-          <t>755</t>
+          <t>2216</t>
         </is>
       </c>
       <c r="D756" t="inlineStr">
@@ -22344,7 +22359,7 @@
       </c>
       <c r="C757" t="inlineStr">
         <is>
-          <t>756</t>
+          <t>2217</t>
         </is>
       </c>
       <c r="D757" t="inlineStr">
@@ -22373,7 +22388,7 @@
       </c>
       <c r="C758" t="inlineStr">
         <is>
-          <t>757</t>
+          <t>2218</t>
         </is>
       </c>
       <c r="D758" t="inlineStr">
@@ -22402,7 +22417,7 @@
       </c>
       <c r="C759" t="inlineStr">
         <is>
-          <t>758</t>
+          <t>2220</t>
         </is>
       </c>
       <c r="D759" t="inlineStr">
@@ -22431,7 +22446,7 @@
       </c>
       <c r="C760" t="inlineStr">
         <is>
-          <t>759</t>
+          <t>2222</t>
         </is>
       </c>
       <c r="D760" t="inlineStr">
@@ -22460,7 +22475,7 @@
       </c>
       <c r="C761" t="inlineStr">
         <is>
-          <t>760</t>
+          <t>2225</t>
         </is>
       </c>
       <c r="D761" t="inlineStr">
@@ -22489,7 +22504,7 @@
       </c>
       <c r="C762" t="inlineStr">
         <is>
-          <t>761</t>
+          <t>2245</t>
         </is>
       </c>
       <c r="D762" t="inlineStr">
@@ -22518,7 +22533,7 @@
       </c>
       <c r="C763" t="inlineStr">
         <is>
-          <t>762</t>
+          <t>2247</t>
         </is>
       </c>
       <c r="D763" t="inlineStr">
@@ -22547,7 +22562,7 @@
       </c>
       <c r="C764" t="inlineStr">
         <is>
-          <t>763</t>
+          <t>2248</t>
         </is>
       </c>
       <c r="D764" t="inlineStr">
@@ -22576,7 +22591,7 @@
       </c>
       <c r="C765" t="inlineStr">
         <is>
-          <t>764</t>
+          <t>2249</t>
         </is>
       </c>
       <c r="D765" t="inlineStr">
@@ -22605,7 +22620,7 @@
       </c>
       <c r="C766" t="inlineStr">
         <is>
-          <t>765</t>
+          <t>2250</t>
         </is>
       </c>
       <c r="D766" t="inlineStr">
@@ -22634,7 +22649,7 @@
       </c>
       <c r="C767" t="inlineStr">
         <is>
-          <t>766</t>
+          <t>2251</t>
         </is>
       </c>
       <c r="D767" t="inlineStr">
@@ -22663,7 +22678,7 @@
       </c>
       <c r="C768" t="inlineStr">
         <is>
-          <t>767</t>
+          <t>2252</t>
         </is>
       </c>
       <c r="D768" t="inlineStr">
@@ -22692,7 +22707,7 @@
       </c>
       <c r="C769" t="inlineStr">
         <is>
-          <t>768</t>
+          <t>2255</t>
         </is>
       </c>
       <c r="D769" t="inlineStr">
@@ -22721,7 +22736,7 @@
       </c>
       <c r="C770" t="inlineStr">
         <is>
-          <t>769</t>
+          <t>2264</t>
         </is>
       </c>
       <c r="D770" t="inlineStr">
@@ -22750,7 +22765,7 @@
       </c>
       <c r="C771" t="inlineStr">
         <is>
-          <t>770</t>
+          <t>2274</t>
         </is>
       </c>
       <c r="D771" t="inlineStr">
@@ -22779,7 +22794,7 @@
       </c>
       <c r="C772" t="inlineStr">
         <is>
-          <t>771</t>
+          <t>2287</t>
         </is>
       </c>
       <c r="D772" t="inlineStr">
@@ -22808,7 +22823,7 @@
       </c>
       <c r="C773" t="inlineStr">
         <is>
-          <t>772</t>
+          <t>2288</t>
         </is>
       </c>
       <c r="D773" t="inlineStr">
@@ -22837,7 +22852,7 @@
       </c>
       <c r="C774" t="inlineStr">
         <is>
-          <t>773</t>
+          <t>2289</t>
         </is>
       </c>
       <c r="D774" t="inlineStr">
@@ -22866,7 +22881,7 @@
       </c>
       <c r="C775" t="inlineStr">
         <is>
-          <t>774</t>
+          <t>2302</t>
         </is>
       </c>
       <c r="D775" t="inlineStr">
@@ -22895,7 +22910,7 @@
       </c>
       <c r="C776" t="inlineStr">
         <is>
-          <t>775</t>
+          <t>2303</t>
         </is>
       </c>
       <c r="D776" t="inlineStr">
@@ -22924,7 +22939,7 @@
       </c>
       <c r="C777" t="inlineStr">
         <is>
-          <t>776</t>
+          <t>2304</t>
         </is>
       </c>
       <c r="D777" t="inlineStr">
@@ -22953,7 +22968,7 @@
       </c>
       <c r="C778" t="inlineStr">
         <is>
-          <t>777</t>
+          <t>2318</t>
         </is>
       </c>
       <c r="D778" t="inlineStr">
@@ -22982,7 +22997,7 @@
       </c>
       <c r="C779" t="inlineStr">
         <is>
-          <t>778</t>
+          <t>2319</t>
         </is>
       </c>
       <c r="D779" t="inlineStr">
@@ -23011,7 +23026,7 @@
       </c>
       <c r="C780" t="inlineStr">
         <is>
-          <t>779</t>
+          <t>2321</t>
         </is>
       </c>
       <c r="D780" t="inlineStr">
@@ -23040,7 +23055,7 @@
       </c>
       <c r="C781" t="inlineStr">
         <is>
-          <t>780</t>
+          <t>2332</t>
         </is>
       </c>
       <c r="D781" t="inlineStr">
@@ -23061,7 +23076,7 @@
     <row r="782">
       <c r="A782" t="inlineStr">
         <is>
-          <t>org.apache.commons.math.util.MathUtils$2</t>
+          <t>org.apache.commons.math.util.MathUtils</t>
         </is>
       </c>
       <c r="B782" t="n">
@@ -23069,10 +23084,15 @@
       </c>
       <c r="C782" t="inlineStr">
         <is>
-          <t>781</t>
-        </is>
-      </c>
-      <c r="D782" t="inlineStr"/>
+          <t>1968</t>
+        </is>
+      </c>
+      <c r="D782" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            switch (dir) {
+</t>
+        </is>
+      </c>
       <c r="E782" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -23085,7 +23105,7 @@
     <row r="783">
       <c r="A783" t="inlineStr">
         <is>
-          <t>org.apache.commons.math.util.MathUtils$1</t>
+          <t>org.apache.commons.math.util.MathUtils</t>
         </is>
       </c>
       <c r="B783" t="n">
@@ -23093,10 +23113,15 @@
       </c>
       <c r="C783" t="inlineStr">
         <is>
-          <t>782</t>
-        </is>
-      </c>
-      <c r="D783" t="inlineStr"/>
+          <t>2226</t>
+        </is>
+      </c>
+      <c r="D783" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            = new Comparator&lt;Pair&lt;Double, double[]&gt;&gt;() {
+</t>
+        </is>
+      </c>
       <c r="E783" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -23109,7 +23134,7 @@
     <row r="784">
       <c r="A784" t="inlineStr">
         <is>
-          <t>org.apache.commons.math.util.MathUtils$1</t>
+          <t>org.apache.commons.math.util.MathUtils</t>
         </is>
       </c>
       <c r="B784" t="n">
@@ -23117,10 +23142,15 @@
       </c>
       <c r="C784" t="inlineStr">
         <is>
-          <t>783</t>
-        </is>
-      </c>
-      <c r="D784" t="inlineStr"/>
+          <t>2230</t>
+        </is>
+      </c>
+      <c r="D784" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                switch (dir) {
+</t>
+        </is>
+      </c>
       <c r="E784" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -23133,7 +23163,7 @@
     <row r="785">
       <c r="A785" t="inlineStr">
         <is>
-          <t>org.apache.commons.math.util.MathUtils$1</t>
+          <t>org.apache.commons.math.util.MathUtils</t>
         </is>
       </c>
       <c r="B785" t="n">
@@ -23141,10 +23171,15 @@
       </c>
       <c r="C785" t="inlineStr">
         <is>
-          <t>784</t>
-        </is>
-      </c>
-      <c r="D785" t="inlineStr"/>
+          <t>2232</t>
+        </is>
+      </c>
+      <c r="D785" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    val = o1.getKey().compareTo(o2.getKey());
+</t>
+        </is>
+      </c>
       <c r="E785" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -23157,7 +23192,7 @@
     <row r="786">
       <c r="A786" t="inlineStr">
         <is>
-          <t>org.apache.commons.math.util.MathUtils$1</t>
+          <t>org.apache.commons.math.util.MathUtils</t>
         </is>
       </c>
       <c r="B786" t="n">
@@ -23165,10 +23200,15 @@
       </c>
       <c r="C786" t="inlineStr">
         <is>
-          <t>785</t>
-        </is>
-      </c>
-      <c r="D786" t="inlineStr"/>
+          <t>2233</t>
+        </is>
+      </c>
+      <c r="D786" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                break;
+</t>
+        </is>
+      </c>
       <c r="E786" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -23181,7 +23221,7 @@
     <row r="787">
       <c r="A787" t="inlineStr">
         <is>
-          <t>org.apache.commons.math.util.MathUtils$1</t>
+          <t>org.apache.commons.math.util.MathUtils</t>
         </is>
       </c>
       <c r="B787" t="n">
@@ -23189,10 +23229,15 @@
       </c>
       <c r="C787" t="inlineStr">
         <is>
-          <t>786</t>
-        </is>
-      </c>
-      <c r="D787" t="inlineStr"/>
+          <t>2235</t>
+        </is>
+      </c>
+      <c r="D787" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    val = o2.getKey().compareTo(o1.getKey());
+</t>
+        </is>
+      </c>
       <c r="E787" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -23205,7 +23250,7 @@
     <row r="788">
       <c r="A788" t="inlineStr">
         <is>
-          <t>org.apache.commons.math.util.MathUtils$1</t>
+          <t>org.apache.commons.math.util.MathUtils</t>
         </is>
       </c>
       <c r="B788" t="n">
@@ -23213,10 +23258,15 @@
       </c>
       <c r="C788" t="inlineStr">
         <is>
-          <t>787</t>
-        </is>
-      </c>
-      <c r="D788" t="inlineStr"/>
+          <t>2236</t>
+        </is>
+      </c>
+      <c r="D788" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                break;
+</t>
+        </is>
+      </c>
       <c r="E788" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -23229,7 +23279,7 @@
     <row r="789">
       <c r="A789" t="inlineStr">
         <is>
-          <t>org.apache.commons.math.util.MathUtils$1</t>
+          <t>org.apache.commons.math.util.MathUtils</t>
         </is>
       </c>
       <c r="B789" t="n">
@@ -23237,10 +23287,15 @@
       </c>
       <c r="C789" t="inlineStr">
         <is>
-          <t>788</t>
-        </is>
-      </c>
-      <c r="D789" t="inlineStr"/>
+          <t>2239</t>
+        </is>
+      </c>
+      <c r="D789" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    throw new IllegalArgumentException();
+</t>
+        </is>
+      </c>
       <c r="E789" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -23253,7 +23308,7 @@
     <row r="790">
       <c r="A790" t="inlineStr">
         <is>
-          <t>org.apache.commons.math.util.MathUtils$1</t>
+          <t>org.apache.commons.math.util.MathUtils</t>
         </is>
       </c>
       <c r="B790" t="n">
@@ -23261,10 +23316,15 @@
       </c>
       <c r="C790" t="inlineStr">
         <is>
-          <t>789</t>
-        </is>
-      </c>
-      <c r="D790" t="inlineStr"/>
+          <t>2241</t>
+        </is>
+      </c>
+      <c r="D790" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                return val;
+</t>
+        </is>
+      </c>
       <c r="E790" t="inlineStr">
         <is>
           <t>0.00000</t>
